--- a/sample_employee.xlsx
+++ b/sample_employee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>nik</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>BOSS</t>
+  </si>
+  <si>
+    <t>tmd</t>
   </si>
 </sst>
 </file>
@@ -378,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,7 +393,7 @@
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,8 +406,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>123456</v>
       </c>
@@ -414,8 +420,11 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>654321</v>
       </c>
@@ -427,6 +436,9 @@
       </c>
       <c r="D3">
         <v>123456</v>
+      </c>
+      <c r="E3">
+        <v>-60</v>
       </c>
     </row>
   </sheetData>

--- a/sample_employee.xlsx
+++ b/sample_employee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>nik</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>tmd</t>
+  </si>
+  <si>
+    <t>prov</t>
+  </si>
+  <si>
+    <t>DKJ</t>
+  </si>
+  <si>
+    <t>BALI</t>
   </si>
 </sst>
 </file>
@@ -381,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,7 +402,7 @@
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,8 +418,11 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>123456</v>
       </c>
@@ -423,8 +435,11 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>654321</v>
       </c>
@@ -438,7 +453,10 @@
         <v>123456</v>
       </c>
       <c r="E3">
-        <v>-60</v>
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
